--- a/application/admin/controller/itemList.xlsx
+++ b/application/admin/controller/itemList.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
     <t>ID</t>
   </si>
@@ -29,10 +29,22 @@
     <t>主分类名称</t>
   </si>
   <si>
+    <t>物料描述</t>
+  </si>
+  <si>
+    <t>创建时间</t>
+  </si>
+  <si>
     <t>更新时间</t>
   </si>
   <si>
-    <t>创建时间</t>
+    <t>过滤减压阀-SMC-AW60-N10BG-2-X430</t>
+  </si>
+  <si>
+    <t>过滤减压阀</t>
+  </si>
+  <si>
+    <t>1970-01-01 08:00:00</t>
   </si>
 </sst>
 </file>
@@ -371,7 +383,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -379,7 +391,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -397,6 +409,30 @@
       </c>
       <c r="F1" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1401010000</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2"/>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
